--- a/BackTest/2019-11-01 BackTest XLM.xlsx
+++ b/BackTest/2019-11-01 BackTest XLM.xlsx
@@ -486,17 +486,13 @@
         <v>74.75166666666657</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>74.40000000000001</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -525,22 +521,14 @@
         <v>74.74166666666656</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -568,22 +556,14 @@
         <v>74.73333333333322</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -611,17 +591,13 @@
         <v>74.72499999999989</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>74.5</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -650,22 +626,14 @@
         <v>74.71666666666655</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -693,22 +661,14 @@
         <v>74.70999999999989</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -736,22 +696,14 @@
         <v>74.71166666666657</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,22 +731,14 @@
         <v>74.71333333333324</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -828,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -863,22 +801,14 @@
         <v>74.71833333333325</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,22 +836,14 @@
         <v>74.72333333333326</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -949,22 +871,14 @@
         <v>74.7266666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -992,22 +906,14 @@
         <v>74.7316666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1035,22 +941,14 @@
         <v>74.74166666666659</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1078,22 +976,14 @@
         <v>74.75999999999992</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1121,22 +1011,14 @@
         <v>74.77999999999993</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>76</v>
-      </c>
-      <c r="K18" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1046,14 @@
         <v>74.79833333333325</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1207,22 +1081,14 @@
         <v>74.81666666666658</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K20" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1250,22 +1116,14 @@
         <v>74.83333333333324</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1293,22 +1151,14 @@
         <v>74.85333333333325</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1336,22 +1186,14 @@
         <v>74.86999999999992</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1379,22 +1221,14 @@
         <v>74.88999999999992</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1428,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1469,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1504,22 +1326,14 @@
         <v>74.95833333333324</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1547,22 +1361,14 @@
         <v>74.97499999999991</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1396,14 @@
         <v>74.98833333333324</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="K29" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1633,22 +1431,14 @@
         <v>75.00333333333325</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1676,22 +1466,14 @@
         <v>75.01833333333325</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="K31" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1719,22 +1501,14 @@
         <v>75.03499999999991</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1768,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1809,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1850,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1891,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1932,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1973,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2014,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2178,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2219,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2260,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2383,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2424,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2465,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2506,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2588,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2629,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2670,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2711,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2752,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2793,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2834,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2875,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2916,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2957,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2998,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3039,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3080,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3121,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3162,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3203,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3244,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3285,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3326,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3367,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3408,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3449,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3490,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3531,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3572,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3613,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3695,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3736,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3777,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3818,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3859,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3900,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3941,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4023,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4064,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4187,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4228,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4269,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4351,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4392,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4433,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4474,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4515,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4556,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4597,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4638,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4679,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4761,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4802,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4843,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4884,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5048,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5130,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5171,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5212,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5253,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5335,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5376,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5417,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5704,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5827,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5909,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5950,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5991,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6032,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6073,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6114,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6155,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6196,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6237,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6278,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6319,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6360,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6401,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6442,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6483,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6524,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6565,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6606,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6647,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6688,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6729,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6770,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6811,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6852,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6975,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7098,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7139,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7180,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7221,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7262,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7344,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7385,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7426,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7467,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7508,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7549,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7587,17 +6509,11 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7631,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7672,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7713,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7754,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7795,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7836,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7877,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7959,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8000,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8041,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8082,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8123,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8164,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8202,17 +7034,11 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8243,17 +7069,11 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8284,17 +7104,11 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8328,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8369,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8407,19 +7209,13 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>1.091644295302014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -8448,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -8483,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -8518,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -8553,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -8588,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -8623,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -9043,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
@@ -9078,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
@@ -9183,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -19400,13 +18196,17 @@
         <v>80.93999999999997</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="K509" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
@@ -19435,14 +18235,22 @@
         <v>80.92666666666663</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="K510" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19476,8 +18284,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19511,8 +18325,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19546,8 +18366,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19581,8 +18407,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19616,8 +18448,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19651,8 +18489,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19686,8 +18530,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19721,8 +18571,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19756,8 +18612,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19791,8 +18653,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19826,8 +18694,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19861,8 +18735,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19896,8 +18776,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19931,8 +18817,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19960,14 +18852,22 @@
         <v>80.85999999999993</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K525" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20001,8 +18901,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20036,8 +18942,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20065,14 +18977,22 @@
         <v>80.89166666666661</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K528" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20106,8 +19026,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20141,8 +19067,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20176,8 +19108,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20211,8 +19149,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20246,8 +19190,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20281,8 +19231,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20316,8 +19272,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20351,8 +19313,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +19354,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20421,8 +19395,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20456,8 +19436,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20491,8 +19477,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20526,8 +19518,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20561,8 +19559,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20596,8 +19600,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20631,8 +19641,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20666,8 +19682,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20701,8 +19723,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20736,8 +19764,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20771,8 +19805,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20806,8 +19846,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20841,8 +19887,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20876,8 +19928,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20911,8 +19969,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20940,14 +20004,22 @@
         <v>80.99166666666663</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="K553" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20975,14 +20047,22 @@
         <v>80.98499999999997</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K554" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21010,14 +20090,22 @@
         <v>80.99166666666663</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>81</v>
+      </c>
+      <c r="K555" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21045,14 +20133,22 @@
         <v>80.99166666666663</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="K556" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21086,8 +20182,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21121,8 +20223,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21156,8 +20264,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21191,8 +20305,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21226,8 +20346,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21261,8 +20387,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21296,8 +20428,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21331,8 +20469,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21366,8 +20510,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21401,8 +20551,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21436,8 +20592,14 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21471,8 +20633,14 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21506,8 +20674,14 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21541,8 +20715,14 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21576,8 +20756,14 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21611,8 +20797,14 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21646,8 +20838,14 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21681,8 +20879,14 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21716,8 +20920,14 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21751,8 +20961,14 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21786,8 +21002,14 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21821,8 +21043,14 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21856,8 +21084,14 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21891,8 +21125,14 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21926,8 +21166,14 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21961,8 +21207,14 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21996,8 +21248,14 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22031,8 +21289,14 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22066,8 +21330,14 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22101,8 +21371,14 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22136,8 +21412,14 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22171,8 +21453,14 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22206,8 +21494,14 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22241,8 +21535,14 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22276,8 +21576,14 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22311,8 +21617,14 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22346,8 +21658,14 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22381,8 +21699,14 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22416,8 +21740,14 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22451,8 +21781,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22486,8 +21822,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22521,8 +21863,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22556,8 +21904,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22591,8 +21945,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22626,8 +21986,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22661,8 +22027,14 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22696,8 +22068,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22731,8 +22109,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22766,8 +22150,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22801,8 +22191,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22836,8 +22232,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22871,8 +22273,14 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22906,8 +22314,14 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22941,8 +22355,14 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22976,8 +22396,14 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23011,8 +22437,14 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23046,8 +22478,14 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23081,8 +22519,14 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23116,8 +22560,14 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23151,8 +22601,14 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23186,8 +22642,14 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23221,8 +22683,14 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23256,8 +22724,14 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23291,8 +22765,14 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23326,8 +22806,14 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23361,8 +22847,14 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23396,8 +22888,14 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23431,8 +22929,14 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23466,8 +22970,14 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23501,8 +23011,14 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23536,8 +23052,14 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23571,8 +23093,14 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23606,8 +23134,14 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23641,8 +23175,14 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23676,8 +23216,14 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23711,8 +23257,14 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23746,8 +23298,14 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23781,8 +23339,14 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23816,8 +23380,14 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23851,8 +23421,14 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23886,8 +23462,14 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23921,8 +23503,14 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23956,8 +23544,14 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23991,8 +23585,14 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24026,8 +23626,14 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -24061,8 +23667,14 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24096,8 +23708,14 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24131,8 +23749,14 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24166,8 +23790,14 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24201,8 +23831,14 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24236,8 +23872,14 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24271,8 +23913,14 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24306,8 +23954,14 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24341,8 +23995,14 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -24376,8 +24036,14 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -24411,8 +24077,14 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -24446,8 +24118,14 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -24481,8 +24159,14 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24516,8 +24200,14 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24551,8 +24241,14 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24586,8 +24282,14 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24621,8 +24323,14 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24656,8 +24364,14 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24691,8 +24405,14 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24726,8 +24446,14 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24761,8 +24487,14 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24796,8 +24528,14 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24831,8 +24569,14 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24866,8 +24610,14 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24901,8 +24651,14 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24936,8 +24692,14 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24971,8 +24733,14 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -25006,8 +24774,14 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25041,8 +24815,14 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25076,8 +24856,14 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25111,8 +24897,14 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25146,8 +24938,14 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25181,8 +24979,14 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25216,8 +25020,14 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25251,8 +25061,14 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25286,8 +25102,14 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25321,8 +25143,14 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25356,8 +25184,14 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25391,8 +25225,14 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25426,8 +25266,14 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25461,8 +25307,14 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25496,8 +25348,14 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25531,8 +25389,14 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25566,8 +25430,14 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25601,8 +25471,14 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25636,8 +25512,14 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25671,8 +25553,14 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25706,8 +25594,14 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25741,8 +25635,14 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25776,8 +25676,14 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25811,8 +25717,14 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25846,8 +25758,14 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25881,8 +25799,14 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25916,8 +25840,14 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25951,8 +25881,14 @@
         <v>0</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25986,8 +25922,14 @@
         <v>0</v>
       </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="K697" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26021,8 +25963,14 @@
         <v>0</v>
       </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="K698" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26056,8 +26004,14 @@
         <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="K699" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26091,8 +26045,14 @@
         <v>0</v>
       </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="K700" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -26126,8 +26086,14 @@
         <v>0</v>
       </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="K701" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -26161,8 +26127,14 @@
         <v>0</v>
       </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="K702" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -26196,8 +26168,14 @@
         <v>0</v>
       </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="K703" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26231,8 +26209,14 @@
         <v>0</v>
       </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="K704" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26266,8 +26250,14 @@
         <v>0</v>
       </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="K705" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26301,8 +26291,14 @@
         <v>0</v>
       </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="K706" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26336,8 +26332,14 @@
         <v>0</v>
       </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="K707" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -26371,8 +26373,14 @@
         <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="K708" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -26406,8 +26414,14 @@
         <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -26441,8 +26455,14 @@
         <v>0</v>
       </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -26476,8 +26496,14 @@
         <v>0</v>
       </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -26511,8 +26537,14 @@
         <v>0</v>
       </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -26546,8 +26578,14 @@
         <v>0</v>
       </c>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -26581,8 +26619,14 @@
         <v>0</v>
       </c>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="K714" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -26616,8 +26660,14 @@
         <v>0</v>
       </c>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="K715" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -26651,8 +26701,14 @@
         <v>0</v>
       </c>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="K716" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26686,8 +26742,14 @@
         <v>0</v>
       </c>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="K717" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26721,8 +26783,14 @@
         <v>0</v>
       </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="K718" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26756,8 +26824,14 @@
         <v>0</v>
       </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="K719" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -26791,8 +26865,14 @@
         <v>0</v>
       </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="K720" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26826,8 +26906,14 @@
         <v>0</v>
       </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26861,8 +26947,14 @@
         <v>0</v>
       </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="K722" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26896,8 +26988,14 @@
         <v>0</v>
       </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="K723" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26931,8 +27029,14 @@
         <v>0</v>
       </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="K724" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26966,8 +27070,14 @@
         <v>0</v>
       </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="K725" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27001,8 +27111,14 @@
         <v>0</v>
       </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="K726" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27036,8 +27152,14 @@
         <v>0</v>
       </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="K727" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27071,8 +27193,14 @@
         <v>0</v>
       </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="K728" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27106,8 +27234,14 @@
         <v>0</v>
       </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="K729" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27141,8 +27275,14 @@
         <v>0</v>
       </c>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="K730" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27176,8 +27316,14 @@
         <v>0</v>
       </c>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="K731" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -27211,8 +27357,14 @@
         <v>0</v>
       </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="K732" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -27246,8 +27398,14 @@
         <v>0</v>
       </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="K733" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -27281,8 +27439,14 @@
         <v>0</v>
       </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="K734" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -27316,8 +27480,14 @@
         <v>0</v>
       </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="K735" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -27351,8 +27521,14 @@
         <v>0</v>
       </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="K736" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -27386,8 +27562,14 @@
         <v>0</v>
       </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="K737" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -27421,8 +27603,14 @@
         <v>0</v>
       </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="K738" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -27456,8 +27644,14 @@
         <v>0</v>
       </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="K739" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -27491,8 +27685,14 @@
         <v>0</v>
       </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="K740" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -27526,8 +27726,14 @@
         <v>0</v>
       </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="K741" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -27561,8 +27767,14 @@
         <v>0</v>
       </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="K742" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -27596,8 +27808,14 @@
         <v>0</v>
       </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="K743" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -27631,8 +27849,14 @@
         <v>0</v>
       </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="K744" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27666,8 +27890,14 @@
         <v>0</v>
       </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="K745" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27701,8 +27931,14 @@
         <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="K746" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -27736,8 +27972,14 @@
         <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="K747" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27771,8 +28013,14 @@
         <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="K748" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27806,8 +28054,14 @@
         <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="K749" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27841,8 +28095,14 @@
         <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="K750" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27876,8 +28136,14 @@
         <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="K751" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27911,8 +28177,14 @@
         <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="K752" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27946,8 +28218,14 @@
         <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="K753" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27981,8 +28259,14 @@
         <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="K754" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28016,8 +28300,14 @@
         <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="K755" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28051,8 +28341,14 @@
         <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="K756" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -28086,8 +28382,14 @@
         <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="K757" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -28121,8 +28423,14 @@
         <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="K758" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -28156,8 +28464,14 @@
         <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="K759" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -28191,8 +28505,14 @@
         <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="K760" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -28226,8 +28546,14 @@
         <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="K761" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -28261,8 +28587,14 @@
         <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="K762" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -28296,8 +28628,14 @@
         <v>0</v>
       </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="K763" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -28331,8 +28669,14 @@
         <v>0</v>
       </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="K764" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -28366,8 +28710,14 @@
         <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="K765" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -28401,8 +28751,14 @@
         <v>0</v>
       </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="K766" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -28436,8 +28792,14 @@
         <v>0</v>
       </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="K767" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -28471,8 +28833,14 @@
         <v>0</v>
       </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="K768" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -28506,8 +28874,14 @@
         <v>0</v>
       </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="K769" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -28541,8 +28915,14 @@
         <v>0</v>
       </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="K770" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -28576,8 +28956,14 @@
         <v>0</v>
       </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="K771" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -28611,8 +28997,14 @@
         <v>0</v>
       </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="K772" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -28646,8 +29038,14 @@
         <v>0</v>
       </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="K773" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -28675,14 +29073,22 @@
         <v>81.26333333333325</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>0</v>
       </c>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="K774" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -28710,14 +29116,22 @@
         <v>81.23833333333324</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="K775" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -28751,8 +29165,14 @@
         <v>0</v>
       </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="K776" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -28786,8 +29206,14 @@
         <v>0</v>
       </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="K777" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -28821,8 +29247,14 @@
         <v>0</v>
       </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="K778" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28856,8 +29288,14 @@
         <v>0</v>
       </c>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="K779" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28891,8 +29329,14 @@
         <v>0</v>
       </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="K780" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28926,8 +29370,14 @@
         <v>0</v>
       </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="K781" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28961,8 +29411,14 @@
         <v>0</v>
       </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="K782" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28996,8 +29452,14 @@
         <v>0</v>
       </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="K783" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29025,14 +29487,22 @@
         <v>81.03333333333326</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>0</v>
       </c>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="K784" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29060,14 +29530,22 @@
         <v>81.01499999999992</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I785" t="n">
         <v>0</v>
       </c>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K785" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -29095,14 +29573,22 @@
         <v>80.99999999999993</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
       </c>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="K786" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest XLM.xlsx
+++ b/BackTest/2019-11-01 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-72336.90455268999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-68706.90455268999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>74.90000000000001</v>
@@ -521,7 +521,7 @@
         <v>-69858.23735268999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>75.09999999999999</v>
@@ -562,7 +562,7 @@
         <v>-68652.23735268999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>74.90000000000001</v>
@@ -603,7 +603,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>75</v>
@@ -640,7 +640,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>74.90000000000001</v>
@@ -681,7 +681,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>74.90000000000001</v>
@@ -722,7 +722,7 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>74.90000000000001</v>
@@ -763,7 +763,7 @@
         <v>-74479.72285268999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>74.90000000000001</v>
@@ -804,7 +804,7 @@
         <v>-74479.72285268999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>74.8</v>
@@ -845,7 +845,7 @@
         <v>-60696.01985576998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>74.8</v>
@@ -886,7 +886,7 @@
         <v>-60696.01985576998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>74.90000000000001</v>
@@ -927,7 +927,7 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>74.90000000000001</v>
@@ -968,7 +968,7 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>74.8</v>
@@ -1009,7 +1009,7 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>74.8</v>
@@ -1050,7 +1050,7 @@
         <v>-59504.98305576998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>74.8</v>
@@ -1091,7 +1091,7 @@
         <v>-65789.00035576998</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>74.90000000000001</v>
@@ -1132,7 +1132,7 @@
         <v>-65789.00035576998</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>74.8</v>
@@ -1173,7 +1173,7 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>74.8</v>
@@ -1214,7 +1214,7 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>74.90000000000001</v>
@@ -1255,7 +1255,7 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>74.90000000000001</v>
@@ -1296,7 +1296,7 @@
         <v>-120248.46485577</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>74.90000000000001</v>
@@ -1337,7 +1337,7 @@
         <v>-122363.46485577</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>74.59999999999999</v>
@@ -1378,7 +1378,7 @@
         <v>-126517.49485577</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>74.40000000000001</v>
@@ -1419,7 +1419,7 @@
         <v>-113007.78755577</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>74.2</v>
@@ -1460,7 +1460,7 @@
         <v>-213007.82855577</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>75</v>
@@ -1501,7 +1501,7 @@
         <v>-200449.82855577</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>74.7</v>
@@ -1542,7 +1542,7 @@
         <v>-220711.81965577</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>74.8</v>
@@ -1583,7 +1583,7 @@
         <v>-218287.88165577</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>74.5</v>
@@ -1624,7 +1624,7 @@
         <v>-218287.88165577</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>74.7</v>
@@ -1665,7 +1665,7 @@
         <v>-222258.88165577</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>74.7</v>
@@ -1706,7 +1706,7 @@
         <v>-242549.32785577</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>74.5</v>
@@ -1747,7 +1747,7 @@
         <v>-242549.32785577</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>74.40000000000001</v>
@@ -1788,7 +1788,7 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>74.40000000000001</v>
@@ -1829,7 +1829,7 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>74.59999999999999</v>
@@ -1870,7 +1870,7 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>74.59999999999999</v>
@@ -1911,7 +1911,7 @@
         <v>-227873.79415577</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>74.59999999999999</v>
@@ -1952,7 +1952,7 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>74.40000000000001</v>
@@ -1993,7 +1993,7 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>74.7</v>
@@ -2034,7 +2034,7 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>74.7</v>
@@ -2075,7 +2075,7 @@
         <v>2678401.76764423</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>74.7</v>
@@ -2116,7 +2116,7 @@
         <v>2718829.80814423</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>74.8</v>
@@ -2157,7 +2157,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>75</v>
@@ -2198,7 +2198,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>75.09999999999999</v>
@@ -2239,7 +2239,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>75.09999999999999</v>
@@ -2280,7 +2280,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>75.09999999999999</v>
@@ -2321,7 +2321,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>75.09999999999999</v>
@@ -2362,7 +2362,7 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>75.09999999999999</v>
@@ -2403,7 +2403,7 @@
         <v>-4033434.31415577</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>75.09999999999999</v>
@@ -2483,11 +2483,9 @@
         <v>-4033434.31415577</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>75</v>
       </c>
@@ -2602,11 +2600,9 @@
         <v>-4059836.47005577</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>75</v>
       </c>
@@ -2643,11 +2639,9 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>74.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>75</v>
       </c>
@@ -2684,7 +2678,7 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>74.5</v>
@@ -2725,7 +2719,7 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>74.5</v>
@@ -2766,7 +2760,7 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>74.5</v>
@@ -2807,11 +2801,9 @@
         <v>-5642733.62145577</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>75</v>
       </c>
@@ -2848,11 +2840,9 @@
         <v>-7193611.64575577</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>75</v>
       </c>
@@ -2889,9 +2879,11 @@
         <v>-5643611.64575577</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>74.3</v>
+      </c>
       <c r="J62" t="n">
         <v>75</v>
       </c>
@@ -2967,9 +2959,11 @@
         <v>-8719188.12125577</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J64" t="n">
         <v>75</v>
       </c>
@@ -3006,9 +3000,11 @@
         <v>-8716548.29575577</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>74.40000000000001</v>
+      </c>
       <c r="J65" t="n">
         <v>75</v>
       </c>
@@ -3045,7 +3041,7 @@
         <v>-10266548.29575577</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>74.5</v>
@@ -3086,7 +3082,7 @@
         <v>-10240795.29735577</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>74.40000000000001</v>
@@ -3127,7 +3123,7 @@
         <v>-4660419.884022439</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>74.5</v>
@@ -3168,11 +3164,9 @@
         <v>-4660419.884022439</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>75</v>
       </c>
@@ -3209,9 +3203,11 @@
         <v>-7760419.884022439</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>75</v>
+      </c>
       <c r="J70" t="n">
         <v>75</v>
       </c>
@@ -3521,11 +3517,9 @@
         <v>-7535514.36311936</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>75</v>
       </c>
@@ -3562,11 +3556,9 @@
         <v>-7535514.36311936</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>75.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>75</v>
       </c>
@@ -3603,11 +3595,9 @@
         <v>-7535514.36311936</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>75.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>75</v>
       </c>
@@ -3917,11 +3907,9 @@
         <v>-10742335.93081936</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>75</v>
       </c>
@@ -10120,7 +10108,7 @@
         <v>-7661137.437437512</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
@@ -10128,15 +10116,13 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.084333333333333</v>
-      </c>
-      <c r="M247" t="n">
-        <v>1.002670226969292</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10164,8 +10150,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>75</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10194,11 +10186,17 @@
         <v>-7919523.135937512</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>75</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10227,11 +10225,17 @@
         <v>-8013245.952437512</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>75</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10263,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>75</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10296,8 +10306,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>75</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10329,8 +10345,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>75</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10362,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>75</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10395,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>75</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10428,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>75</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10461,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>75</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10494,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>75</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10527,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>75</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10557,11 +10615,17 @@
         <v>-7440799.078845332</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>75</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10590,11 +10654,17 @@
         <v>-7698603.132945333</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>75</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10623,11 +10693,17 @@
         <v>-7493686.617679602</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>75</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10656,11 +10732,17 @@
         <v>-7159213.839179602</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>75</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10689,11 +10771,17 @@
         <v>-7563605.724479603</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>75</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10722,11 +10810,17 @@
         <v>-7872691.633782633</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>75</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10755,11 +10849,17 @@
         <v>-7632177.167082633</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>75</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10788,11 +10888,17 @@
         <v>-7410060.145463433</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>75</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10821,11 +10927,17 @@
         <v>-6794734.718663434</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>75</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10854,15 +10966,23 @@
         <v>-6452732.129069054</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>75</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>1.105666666666667</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1.002670226969292</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10887,7 +11007,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10920,7 +11040,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10953,7 +11073,7 @@
         <v>-6238034.226169053</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10986,7 +11106,7 @@
         <v>-6002806.218669053</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11019,7 +11139,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11052,7 +11172,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11085,7 +11205,7 @@
         <v>-6235035.300669054</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11118,7 +11238,7 @@
         <v>-5934005.262169054</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11151,7 +11271,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11184,7 +11304,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11217,7 +11337,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11250,7 +11370,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11283,7 +11403,7 @@
         <v>-6332742.164367704</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11316,7 +11436,7 @@
         <v>-6541592.667467704</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11349,7 +11469,7 @@
         <v>-6658698.213367704</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11382,7 +11502,7 @@
         <v>-6783288.542467704</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11415,7 +11535,7 @@
         <v>-6962713.069647164</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11448,7 +11568,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11481,7 +11601,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11514,7 +11634,7 @@
         <v>-6334817.489147164</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11547,7 +11667,7 @@
         <v>-6384168.812047164</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11580,7 +11700,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11613,7 +11733,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11646,7 +11766,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11679,7 +11799,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11712,7 +11832,7 @@
         <v>-6201876.489137404</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11745,7 +11865,7 @@
         <v>-6327607.425337404</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11778,7 +11898,7 @@
         <v>-6362526.901337404</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11811,7 +11931,7 @@
         <v>-6390228.132337403</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11844,7 +11964,7 @@
         <v>-6447698.136160653</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11877,7 +11997,7 @@
         <v>-6250932.326309123</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11910,7 +12030,7 @@
         <v>-6331403.543909123</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11943,7 +12063,7 @@
         <v>-6467233.064309123</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11976,7 +12096,7 @@
         <v>-6388801.411136753</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12042,7 +12162,7 @@
         <v>-6304809.322536753</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12075,7 +12195,7 @@
         <v>-6304809.322536753</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12108,7 +12228,7 @@
         <v>-6195207.268436752</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12141,7 +12261,7 @@
         <v>-6271332.002536752</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12174,7 +12294,7 @@
         <v>-6352041.698053473</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12207,7 +12327,7 @@
         <v>-6221357.384153472</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12240,7 +12360,7 @@
         <v>-6212276.612653472</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12273,7 +12393,7 @@
         <v>-6339232.254053473</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12306,7 +12426,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12339,7 +12459,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12372,7 +12492,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12405,7 +12525,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12438,7 +12558,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12471,7 +12591,7 @@
         <v>-6365831.494253472</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12504,7 +12624,7 @@
         <v>-6265503.161153472</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12537,7 +12657,7 @@
         <v>-6254850.879253472</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12570,7 +12690,7 @@
         <v>-6202305.844053472</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12603,7 +12723,7 @@
         <v>-6185315.143553472</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12636,7 +12756,7 @@
         <v>-6041662.686353472</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12669,7 +12789,7 @@
         <v>-5876150.851353472</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12702,7 +12822,7 @@
         <v>-6003009.046212342</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12735,7 +12855,7 @@
         <v>-6007943.977312341</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13131,7 +13251,7 @@
         <v>-5814153.667612341</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13164,7 +13284,7 @@
         <v>-5814153.667612341</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13197,7 +13317,7 @@
         <v>-5814153.667612341</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13230,7 +13350,7 @@
         <v>-5803094.121712341</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13263,7 +13383,7 @@
         <v>-5734480.194912341</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13296,7 +13416,7 @@
         <v>-2616101.414312341</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13329,7 +13449,7 @@
         <v>-2647572.662812341</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13362,7 +13482,7 @@
         <v>-2633066.568612341</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13395,7 +13515,7 @@
         <v>-2584141.674412341</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13428,7 +13548,7 @@
         <v>-2584141.674412341</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13461,7 +13581,7 @@
         <v>-2584141.674412341</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13494,7 +13614,7 @@
         <v>-9413325.907112341</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13527,7 +13647,7 @@
         <v>-9428339.008712342</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13560,7 +13680,7 @@
         <v>-9428339.008712342</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13593,7 +13713,7 @@
         <v>-9514934.486712342</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13626,7 +13746,7 @@
         <v>-9514934.486712342</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13725,7 +13845,7 @@
         <v>-9510557.263212342</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13758,7 +13878,7 @@
         <v>-9646509.536212342</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13791,7 +13911,7 @@
         <v>-9662373.502512341</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13824,7 +13944,7 @@
         <v>-9662373.502512341</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13857,7 +13977,7 @@
         <v>-9648304.880712342</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13890,7 +14010,7 @@
         <v>-9662027.696712341</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13923,7 +14043,7 @@
         <v>-9662027.696712341</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13956,7 +14076,7 @@
         <v>-9627019.880412342</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13989,7 +14109,7 @@
         <v>-9474208.367204983</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14055,7 +14175,7 @@
         <v>-9514414.034704983</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14088,7 +14208,7 @@
         <v>-9498593.260704983</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14121,7 +14241,7 @@
         <v>-9498593.260704983</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14154,7 +14274,7 @@
         <v>-9498693.260704983</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14187,7 +14307,7 @@
         <v>-9593565.467704983</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14220,7 +14340,7 @@
         <v>-9588672.467704983</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14253,7 +14373,7 @@
         <v>-9588798.654404983</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14286,7 +14406,7 @@
         <v>-9501237.706504984</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14319,7 +14439,7 @@
         <v>-9501237.706504984</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14484,7 +14604,7 @@
         <v>-13478832.91910499</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14517,7 +14637,7 @@
         <v>-13938572.73361557</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14550,7 +14670,7 @@
         <v>-13864090.52251557</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14583,7 +14703,7 @@
         <v>-13864090.52251557</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14616,7 +14736,7 @@
         <v>-13864090.52251557</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14649,7 +14769,7 @@
         <v>-13864090.52251557</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14682,7 +14802,7 @@
         <v>-13873034.30631557</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14715,7 +14835,7 @@
         <v>-14001390.20381557</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14748,7 +14868,7 @@
         <v>-13996483.24511557</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14814,7 +14934,7 @@
         <v>-20923585.12981557</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14847,7 +14967,7 @@
         <v>-20784163.20591557</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14880,7 +15000,7 @@
         <v>-20805978.80901557</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14913,7 +15033,7 @@
         <v>-21735978.80901557</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14946,7 +15066,7 @@
         <v>-25157247.72941557</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14979,7 +15099,7 @@
         <v>-25101797.16941557</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15012,7 +15132,7 @@
         <v>-25093245.17041557</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15045,7 +15165,7 @@
         <v>-25093245.17041557</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15078,7 +15198,7 @@
         <v>-25106706.70881557</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15111,7 +15231,7 @@
         <v>-25106706.70881557</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15144,7 +15264,7 @@
         <v>-25106706.70881557</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15177,7 +15297,7 @@
         <v>-25120261.01041557</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15210,7 +15330,7 @@
         <v>-24813821.07459205</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15243,7 +15363,7 @@
         <v>-24813821.07459205</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15309,7 +15429,7 @@
         <v>-24911579.54639205</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15375,7 +15495,7 @@
         <v>-25054340.04789205</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15408,7 +15528,7 @@
         <v>-20399410.94969205</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15441,7 +15561,7 @@
         <v>-20387352.13779205</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15474,7 +15594,7 @@
         <v>-20387352.13779205</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15639,7 +15759,7 @@
         <v>-17473057.42359205</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15705,7 +15825,7 @@
         <v>-20582559.16349205</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15738,7 +15858,7 @@
         <v>-19606690.24869205</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15771,7 +15891,7 @@
         <v>-14505133.24869205</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15804,7 +15924,7 @@
         <v>-14505309.90119205</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15837,7 +15957,7 @@
         <v>-11787912.91559205</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16035,7 +16155,7 @@
         <v>-14275454.31329205</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16101,7 +16221,7 @@
         <v>-19350634.36659205</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16761,7 +16881,7 @@
         <v>-18408667.47809206</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17223,7 +17343,7 @@
         <v>-18611924.91770899</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17256,7 +17376,7 @@
         <v>-18611924.91770899</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17289,7 +17409,7 @@
         <v>-18611924.91770899</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17487,7 +17607,7 @@
         <v>-18630937.58430899</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17553,7 +17673,7 @@
         <v>-18701333.84820899</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17586,7 +17706,7 @@
         <v>-18701333.84820899</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17619,7 +17739,7 @@
         <v>-18701333.84820899</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17850,7 +17970,7 @@
         <v>-24869206.52480899</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17883,7 +18003,7 @@
         <v>-24869206.52480899</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17916,7 +18036,7 @@
         <v>-24704794.18107484</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17949,7 +18069,7 @@
         <v>-24696762.83777484</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18081,7 +18201,7 @@
         <v>-27626675.97987484</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18147,7 +18267,7 @@
         <v>-27678862.48797484</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18180,7 +18300,7 @@
         <v>-27679862.48797484</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18213,7 +18333,7 @@
         <v>-27679862.48797484</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18312,7 +18432,7 @@
         <v>-30618063.22077484</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18345,7 +18465,7 @@
         <v>-30617546.53737484</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18411,7 +18531,7 @@
         <v>-33617546.53737484</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18444,7 +18564,7 @@
         <v>-33574915.07577484</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18477,7 +18597,7 @@
         <v>-33630704.73287484</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18543,7 +18663,7 @@
         <v>-36641839.0486426</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -23592,7 +23712,7 @@
         <v>-39325494.413895</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23625,7 +23745,7 @@
         <v>-39325494.413895</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23658,7 +23778,7 @@
         <v>-39218221.594795</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23757,7 +23877,7 @@
         <v>-39231826.99819499</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23790,7 +23910,7 @@
         <v>-39189772.07329499</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -30203,6 +30323,6 @@
       <c r="M855" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest XLM.xlsx
+++ b/BackTest/2019-11-01 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2157,11 +2157,9 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>75</v>
       </c>
@@ -2198,11 +2196,9 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>75</v>
       </c>
@@ -2239,11 +2235,9 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>75</v>
       </c>
@@ -2280,11 +2274,9 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>75</v>
       </c>
@@ -2321,11 +2313,9 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>75</v>
       </c>
@@ -2362,11 +2352,9 @@
         <v>2786565.68584423</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>75</v>
       </c>
@@ -2403,11 +2391,9 @@
         <v>-4033434.31415577</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>75.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>75</v>
       </c>
@@ -2678,11 +2664,9 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>75</v>
       </c>
@@ -2719,11 +2703,9 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>75</v>
       </c>
@@ -2760,11 +2742,9 @@
         <v>-4092733.62145577</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>75</v>
       </c>
@@ -2879,11 +2859,9 @@
         <v>-5643611.64575577</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>74.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>75</v>
       </c>
@@ -2959,11 +2937,9 @@
         <v>-8719188.12125577</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>75</v>
       </c>
@@ -3000,11 +2976,9 @@
         <v>-8716548.29575577</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>75</v>
       </c>
@@ -3041,11 +3015,9 @@
         <v>-10266548.29575577</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>75</v>
       </c>
@@ -3082,11 +3054,9 @@
         <v>-10240795.29735577</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>74.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>75</v>
       </c>
@@ -3123,11 +3093,9 @@
         <v>-4660419.884022439</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>74.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>75</v>
       </c>
@@ -3203,11 +3171,9 @@
         <v>-7760419.884022439</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>75</v>
       </c>
@@ -9679,7 +9645,7 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
@@ -9687,13 +9653,15 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>1.059</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.002670226969292</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9718,17 +9686,11 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>75</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9757,17 +9719,11 @@
         <v>-10126699.52365027</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>75</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9796,17 +9752,11 @@
         <v>-9905774.236350272</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>75</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9835,17 +9785,11 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>75</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9874,17 +9818,11 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>75</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9913,17 +9851,11 @@
         <v>-9504984.720150271</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>75</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9952,17 +9884,11 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>75</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9991,17 +9917,11 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>75</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10030,17 +9950,11 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>75</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10069,17 +9983,11 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>75</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10108,17 +10016,11 @@
         <v>-7661137.437437512</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>75</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10147,17 +10049,11 @@
         <v>-8239962.830937512</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>75</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10186,17 +10082,11 @@
         <v>-7919523.135937512</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>75</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10225,17 +10115,11 @@
         <v>-8013245.952437512</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>75</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10264,17 +10148,11 @@
         <v>-8377245.348251232</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>75</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10303,17 +10181,11 @@
         <v>-8104695.712151232</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>75</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10342,17 +10214,11 @@
         <v>-7901439.660151232</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>75</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10381,17 +10247,11 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>75</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10420,17 +10280,11 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>75</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10459,17 +10313,11 @@
         <v>-7740695.237078742</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>75</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10498,17 +10346,11 @@
         <v>-7350044.580678742</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>75</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10537,17 +10379,11 @@
         <v>-7602400.460678742</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>75</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10579,14 +10415,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>75</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10618,14 +10448,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>75</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10657,14 +10481,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>75</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10696,14 +10514,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>75</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10735,14 +10547,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>75</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10774,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>75</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10813,14 +10613,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>75</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10852,14 +10646,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>75</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10891,14 +10679,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>75</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10930,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>75</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10966,23 +10742,15 @@
         <v>-6452732.129069054</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>75</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
-        <v>1.105666666666667</v>
-      </c>
-      <c r="M269" t="n">
-        <v>1.002670226969292</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11007,7 +10775,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -11040,7 +10808,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -11073,7 +10841,7 @@
         <v>-6238034.226169053</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11106,7 +10874,7 @@
         <v>-6002806.218669053</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11139,7 +10907,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11172,7 +10940,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11205,7 +10973,7 @@
         <v>-6235035.300669054</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11238,7 +11006,7 @@
         <v>-5934005.262169054</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11271,7 +11039,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11304,7 +11072,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11337,7 +11105,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11370,7 +11138,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11403,7 +11171,7 @@
         <v>-6332742.164367704</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11436,7 +11204,7 @@
         <v>-6541592.667467704</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11469,7 +11237,7 @@
         <v>-6658698.213367704</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11502,7 +11270,7 @@
         <v>-6783288.542467704</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11535,7 +11303,7 @@
         <v>-6962713.069647164</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11568,7 +11336,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11601,7 +11369,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11634,7 +11402,7 @@
         <v>-6334817.489147164</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11667,7 +11435,7 @@
         <v>-6384168.812047164</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11700,7 +11468,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11733,7 +11501,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11766,7 +11534,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11799,7 +11567,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11832,7 +11600,7 @@
         <v>-6201876.489137404</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11865,7 +11633,7 @@
         <v>-6327607.425337404</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11898,7 +11666,7 @@
         <v>-6362526.901337404</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11931,7 +11699,7 @@
         <v>-6390228.132337403</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11964,7 +11732,7 @@
         <v>-6447698.136160653</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11997,7 +11765,7 @@
         <v>-6250932.326309123</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12030,7 +11798,7 @@
         <v>-6331403.543909123</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12261,7 +12029,7 @@
         <v>-6271332.002536752</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12294,7 +12062,7 @@
         <v>-6352041.698053473</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12360,7 +12128,7 @@
         <v>-6212276.612653472</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12393,7 +12161,7 @@
         <v>-6339232.254053473</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12426,7 +12194,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12459,7 +12227,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12492,7 +12260,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12525,7 +12293,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12558,7 +12326,7 @@
         <v>-6456188.192653473</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12591,7 +12359,7 @@
         <v>-6365831.494253472</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12624,7 +12392,7 @@
         <v>-6265503.161153472</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12657,7 +12425,7 @@
         <v>-6254850.879253472</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12690,7 +12458,7 @@
         <v>-6202305.844053472</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12723,7 +12491,7 @@
         <v>-6185315.143553472</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -13251,7 +13019,7 @@
         <v>-5814153.667612341</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13284,7 +13052,7 @@
         <v>-5814153.667612341</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13317,7 +13085,7 @@
         <v>-5814153.667612341</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13350,7 +13118,7 @@
         <v>-5803094.121712341</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13383,7 +13151,7 @@
         <v>-5734480.194912341</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13416,7 +13184,7 @@
         <v>-2616101.414312341</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13449,7 +13217,7 @@
         <v>-2647572.662812341</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13482,7 +13250,7 @@
         <v>-2633066.568612341</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13515,7 +13283,7 @@
         <v>-2584141.674412341</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13548,7 +13316,7 @@
         <v>-2584141.674412341</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13581,7 +13349,7 @@
         <v>-2584141.674412341</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13614,7 +13382,7 @@
         <v>-9413325.907112341</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13647,7 +13415,7 @@
         <v>-9428339.008712342</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13845,7 +13613,7 @@
         <v>-9510557.263212342</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13878,7 +13646,7 @@
         <v>-9646509.536212342</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13911,7 +13679,7 @@
         <v>-9662373.502512341</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13944,7 +13712,7 @@
         <v>-9662373.502512341</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13977,7 +13745,7 @@
         <v>-9648304.880712342</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14010,7 +13778,7 @@
         <v>-9662027.696712341</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14043,7 +13811,7 @@
         <v>-9662027.696712341</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14076,7 +13844,7 @@
         <v>-9627019.880412342</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14109,7 +13877,7 @@
         <v>-9474208.367204983</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14175,7 +13943,7 @@
         <v>-9514414.034704983</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14208,7 +13976,7 @@
         <v>-9498593.260704983</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14241,7 +14009,7 @@
         <v>-9498593.260704983</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14274,7 +14042,7 @@
         <v>-9498693.260704983</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14307,7 +14075,7 @@
         <v>-9593565.467704983</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14340,7 +14108,7 @@
         <v>-9588672.467704983</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14373,7 +14141,7 @@
         <v>-9588798.654404983</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14406,7 +14174,7 @@
         <v>-9501237.706504984</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14439,7 +14207,7 @@
         <v>-9501237.706504984</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14934,7 +14702,7 @@
         <v>-20923585.12981557</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14967,7 +14735,7 @@
         <v>-20784163.20591557</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15000,7 +14768,7 @@
         <v>-20805978.80901557</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15033,7 +14801,7 @@
         <v>-21735978.80901557</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15066,7 +14834,7 @@
         <v>-25157247.72941557</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15099,7 +14867,7 @@
         <v>-25101797.16941557</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15132,7 +14900,7 @@
         <v>-25093245.17041557</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15165,7 +14933,7 @@
         <v>-25093245.17041557</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15198,7 +14966,7 @@
         <v>-25106706.70881557</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15231,7 +14999,7 @@
         <v>-25106706.70881557</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15264,7 +15032,7 @@
         <v>-25106706.70881557</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15297,7 +15065,7 @@
         <v>-25120261.01041557</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15330,7 +15098,7 @@
         <v>-24813821.07459205</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15363,7 +15131,7 @@
         <v>-24813821.07459205</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15429,7 +15197,7 @@
         <v>-24911579.54639205</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15495,7 +15263,7 @@
         <v>-25054340.04789205</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15528,7 +15296,7 @@
         <v>-20399410.94969205</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15561,7 +15329,7 @@
         <v>-20387352.13779205</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15594,7 +15362,7 @@
         <v>-20387352.13779205</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15759,7 +15527,7 @@
         <v>-17473057.42359205</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15825,7 +15593,7 @@
         <v>-20582559.16349205</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15858,7 +15626,7 @@
         <v>-19606690.24869205</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15891,7 +15659,7 @@
         <v>-14505133.24869205</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15924,7 +15692,7 @@
         <v>-14505309.90119205</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15957,7 +15725,7 @@
         <v>-11787912.91559205</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16155,7 +15923,7 @@
         <v>-14275454.31329205</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16221,7 +15989,7 @@
         <v>-19350634.36659205</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16881,7 +16649,7 @@
         <v>-18408667.47809206</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17343,7 +17111,7 @@
         <v>-18611924.91770899</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17376,7 +17144,7 @@
         <v>-18611924.91770899</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17409,7 +17177,7 @@
         <v>-18611924.91770899</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17607,7 +17375,7 @@
         <v>-18630937.58430899</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17673,7 +17441,7 @@
         <v>-18701333.84820899</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17706,7 +17474,7 @@
         <v>-18701333.84820899</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17739,7 +17507,7 @@
         <v>-18701333.84820899</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17970,7 +17738,7 @@
         <v>-24869206.52480899</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18003,7 +17771,7 @@
         <v>-24869206.52480899</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18036,7 +17804,7 @@
         <v>-24704794.18107484</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18069,7 +17837,7 @@
         <v>-24696762.83777484</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18201,7 +17969,7 @@
         <v>-27626675.97987484</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18267,7 +18035,7 @@
         <v>-27678862.48797484</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18300,7 +18068,7 @@
         <v>-27679862.48797484</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18333,7 +18101,7 @@
         <v>-27679862.48797484</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18432,7 +18200,7 @@
         <v>-30618063.22077484</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18465,7 +18233,7 @@
         <v>-30617546.53737484</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18531,7 +18299,7 @@
         <v>-33617546.53737484</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18564,7 +18332,7 @@
         <v>-33574915.07577484</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18597,7 +18365,7 @@
         <v>-33630704.73287484</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18663,7 +18431,7 @@
         <v>-36641839.0486426</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -22062,10 +21830,14 @@
         <v>-39366326.48272689</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="J605" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
@@ -22098,8 +21870,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22131,8 +21909,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22293,11 +22077,17 @@
         <v>-39372207.50372688</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>81.09999999999999</v>
+      </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22326,11 +22116,17 @@
         <v>-39371792.50992689</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22363,7 +22159,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22396,7 +22196,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22429,7 +22233,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22462,7 +22270,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22495,7 +22307,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22528,7 +22344,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22561,7 +22381,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22594,7 +22418,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22627,7 +22455,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22660,7 +22492,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22693,7 +22529,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22726,7 +22566,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22759,7 +22603,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22792,7 +22640,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22825,7 +22677,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22858,7 +22714,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22891,7 +22751,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22924,7 +22788,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22957,7 +22825,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22990,7 +22862,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23023,7 +22899,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23056,7 +22936,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23089,7 +22973,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23122,7 +23010,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23155,7 +23047,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23188,7 +23084,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23221,7 +23121,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23254,7 +23158,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23287,7 +23195,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23320,7 +23232,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23353,7 +23269,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23386,7 +23306,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23419,7 +23343,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23452,7 +23380,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23485,7 +23417,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23518,7 +23454,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23551,7 +23491,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23584,7 +23528,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23617,7 +23565,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23650,7 +23602,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23683,7 +23639,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23716,7 +23676,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23749,7 +23713,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23782,7 +23750,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23815,7 +23787,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23848,7 +23824,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23881,7 +23861,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23914,7 +23898,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23947,7 +23935,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23980,7 +23972,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24013,7 +24009,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24046,7 +24046,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24079,7 +24083,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24112,7 +24120,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24145,7 +24157,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24178,7 +24194,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24211,7 +24231,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24244,7 +24268,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24277,7 +24305,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24310,7 +24342,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24343,7 +24379,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24376,7 +24416,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24409,7 +24453,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24442,7 +24490,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24475,7 +24527,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24508,7 +24564,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24541,7 +24601,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24574,7 +24638,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24607,7 +24675,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24640,7 +24712,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24673,7 +24749,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24706,7 +24786,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24739,7 +24823,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24772,7 +24860,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24805,7 +24897,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24838,7 +24934,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24871,7 +24971,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24904,7 +25008,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24937,7 +25045,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24970,7 +25082,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25003,7 +25119,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25036,7 +25156,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25069,7 +25193,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25102,7 +25230,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25135,7 +25267,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25168,7 +25304,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25201,7 +25341,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25234,7 +25378,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25267,7 +25415,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25300,7 +25452,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25333,7 +25489,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25366,7 +25526,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25399,7 +25563,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25432,7 +25600,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25465,7 +25637,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25498,7 +25674,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25531,7 +25711,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25564,7 +25748,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25597,7 +25785,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25630,7 +25822,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25663,7 +25859,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25696,7 +25896,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25729,7 +25933,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25762,7 +25970,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25795,7 +26007,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25828,7 +26044,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25861,7 +26081,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25894,7 +26118,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25927,7 +26155,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25960,7 +26192,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25993,7 +26229,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26026,7 +26266,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26059,7 +26303,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26092,7 +26340,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26125,7 +26377,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26158,7 +26414,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26191,7 +26451,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26224,7 +26488,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26257,7 +26525,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26290,7 +26562,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26323,7 +26599,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26356,7 +26636,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26389,7 +26673,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26422,7 +26710,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26455,7 +26747,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26488,7 +26784,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26521,7 +26821,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26554,7 +26858,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26587,7 +26895,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26620,7 +26932,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26653,7 +26969,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26686,7 +27006,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26719,7 +27043,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26752,7 +27080,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26785,7 +27117,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26818,7 +27154,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26851,7 +27191,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26884,7 +27228,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26917,7 +27265,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26950,7 +27302,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26983,7 +27339,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27016,7 +27376,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27049,7 +27413,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27082,7 +27450,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27115,7 +27487,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27148,7 +27524,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27181,7 +27561,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27214,7 +27598,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27247,7 +27635,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27280,7 +27672,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27313,7 +27709,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27346,7 +27746,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27379,7 +27783,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27412,7 +27820,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27445,7 +27857,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27478,7 +27894,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27511,7 +27931,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27544,7 +27968,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27577,7 +28005,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27610,7 +28042,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27643,7 +28079,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27676,7 +28116,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27709,7 +28153,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27742,7 +28190,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27775,7 +28227,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27808,7 +28264,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27841,7 +28301,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27874,7 +28338,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27907,7 +28375,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27940,7 +28412,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27973,7 +28449,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28006,7 +28486,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28039,7 +28523,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28072,7 +28560,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28105,7 +28597,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28138,7 +28634,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28171,7 +28671,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28204,7 +28708,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28237,7 +28745,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28270,7 +28782,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28303,7 +28819,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28336,7 +28856,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28369,7 +28893,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28402,7 +28930,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28435,7 +28967,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28468,7 +29004,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28501,7 +29041,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28534,7 +29078,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28567,7 +29115,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28600,7 +29152,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28633,7 +29189,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28666,7 +29226,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28699,7 +29263,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28732,7 +29300,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28765,7 +29337,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28798,7 +29374,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28831,7 +29411,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28864,7 +29448,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28897,7 +29485,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28930,7 +29522,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28963,7 +29559,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28996,7 +29596,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29029,7 +29633,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29062,7 +29670,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29095,7 +29707,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29128,7 +29744,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29161,7 +29781,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29194,7 +29818,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29227,7 +29855,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29260,7 +29892,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29293,7 +29929,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29326,7 +29966,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29359,7 +30003,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29392,7 +30040,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29425,7 +30077,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29458,7 +30114,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29491,7 +30151,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29524,7 +30188,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29557,7 +30225,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29590,7 +30262,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29623,7 +30299,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29656,7 +30336,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29689,7 +30373,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29722,7 +30410,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29755,7 +30447,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29788,7 +30484,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29821,7 +30521,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29854,7 +30558,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29887,7 +30595,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29920,7 +30632,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29953,7 +30669,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29986,7 +30706,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30019,7 +30743,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30052,7 +30780,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30085,7 +30817,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30118,7 +30854,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30151,7 +30891,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30184,7 +30928,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30217,7 +30965,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30250,7 +31002,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30283,7 +31039,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30316,13 +31076,17 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
       <c r="M855" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest XLM.xlsx
+++ b/BackTest/2019-11-01 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>-72336.90455268999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-68706.90455268999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-69858.23735268999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-68652.23735268999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>75</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>75</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>-68944.72295268999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>75</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>-74479.72285268999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>75</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,19 +748,11 @@
         <v>-74479.72285268999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>75</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +781,11 @@
         <v>-60696.01985576998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>75</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +814,11 @@
         <v>-60696.01985576998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>75</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -927,19 +847,11 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -968,19 +880,11 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>75</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1009,19 +913,11 @@
         <v>-61172.98295576998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1050,19 +946,11 @@
         <v>-59504.98305576998</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>75</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1091,19 +979,11 @@
         <v>-65789.00035576998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1132,19 +1012,11 @@
         <v>-65789.00035576998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>75</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1173,19 +1045,11 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>75</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1214,19 +1078,11 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1255,19 +1111,11 @@
         <v>-64779.00035576998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>75</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1296,19 +1144,11 @@
         <v>-120248.46485577</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J23" t="n">
-        <v>75</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1337,19 +1177,11 @@
         <v>-122363.46485577</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J24" t="n">
-        <v>75</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1378,19 +1210,11 @@
         <v>-126517.49485577</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>75</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1419,19 +1243,11 @@
         <v>-113007.78755577</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>75</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1460,19 +1276,11 @@
         <v>-213007.82855577</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>75</v>
-      </c>
-      <c r="J27" t="n">
-        <v>75</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1501,19 +1309,11 @@
         <v>-200449.82855577</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>75</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1542,19 +1342,11 @@
         <v>-220711.81965577</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>75</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1583,19 +1375,11 @@
         <v>-218287.88165577</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>75</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1624,19 +1408,11 @@
         <v>-218287.88165577</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>75</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1441,11 @@
         <v>-222258.88165577</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>75</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1706,19 +1474,11 @@
         <v>-242549.32785577</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>75</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1747,19 +1507,11 @@
         <v>-242549.32785577</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>75</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1788,19 +1540,11 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J35" t="n">
-        <v>75</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1829,19 +1573,11 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J36" t="n">
-        <v>75</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1870,19 +1606,11 @@
         <v>-214693.89975577</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J37" t="n">
-        <v>75</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1911,19 +1639,11 @@
         <v>-227873.79415577</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="J38" t="n">
-        <v>75</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1952,19 +1672,11 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>75</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1993,19 +1705,11 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>75</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2034,19 +1738,11 @@
         <v>2611556.47354423</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>75</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2075,19 +1771,11 @@
         <v>2678401.76764423</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>75</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +1804,11 @@
         <v>2718829.80814423</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>75</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2160,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>75</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>75</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2238,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>75</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>75</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2316,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>75</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>75</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>75</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>75</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>75</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>75</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2550,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>75</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2589,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>75</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>75</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>75</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2706,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>75</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2745,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>75</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2784,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>75</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2823,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>75</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2862,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>75</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2901,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>75</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2940,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>75</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2979,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>75</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>75</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3057,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>75</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3096,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>75</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3135,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>75</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3174,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>75</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3213,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>75</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3252,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>75</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3291,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>75</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3330,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>75</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3369,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>75</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3408,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>75</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3447,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>75</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3486,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>75</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3525,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>75</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3564,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>75</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3603,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>75</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3642,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>75</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3681,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>75</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>75</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3759,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>75</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3798,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>75</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3837,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>75</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>75</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3915,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>75</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>75</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>75</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>75</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4071,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>75</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4110,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>75</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>75</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4188,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>75</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4227,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>75</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>75</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4305,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>75</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4344,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>75</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>75</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4422,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>75</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>75</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4500,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>75</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4539,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>75</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4578,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>75</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>75</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4656,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>75</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4695,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>75</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>75</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4773,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>75</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>75</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>75</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4890,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>75</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>75</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>75</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>75</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5046,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>75</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>75</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5124,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>75</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>75</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>75</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5241,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>75</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5280,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>75</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5319,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>75</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5358,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>75</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5397,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>75</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5436,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>75</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5475,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>75</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5514,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>75</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5553,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>75</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5592,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>75</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5631,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>75</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5670,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>75</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5709,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>75</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5748,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>75</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5787,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>75</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5826,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>75</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5865,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>75</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5904,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>75</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5943,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>75</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5982,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>75</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6021,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>75</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6060,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>75</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6099,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>75</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6138,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>75</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6177,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>75</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>75</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6255,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>75</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6294,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>75</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6333,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>75</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6372,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>75</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6411,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>75</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6450,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>75</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6489,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>75</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6528,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>75</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6567,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>75</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6606,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>75</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6645,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>75</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6684,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>75</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6723,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>75</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6762,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>75</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6801,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>75</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6840,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>75</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6879,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>75</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6918,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>75</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6957,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>75</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6996,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>75</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7035,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>75</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7074,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>75</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7113,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>75</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7152,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>75</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7191,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>75</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7230,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>75</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7269,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>75</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7308,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>75</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7347,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>75</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7386,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>75</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7425,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>75</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7464,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>75</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7503,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>75</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7542,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>75</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7581,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>75</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7620,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>75</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7659,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>75</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7698,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>75</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7737,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>75</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7776,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>75</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7815,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>75</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7854,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>75</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7893,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>75</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7932,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>75</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7971,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>75</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8010,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>75</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8049,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>75</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8088,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>75</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8127,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>75</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8166,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>75</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8205,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>75</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8244,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>75</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8283,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>75</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8322,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>75</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8361,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>75</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8400,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>75</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8439,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>75</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8478,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>75</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8517,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>75</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8556,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>75</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8595,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>75</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8634,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>75</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8673,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>75</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8712,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>75</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8751,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>75</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8790,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>75</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8829,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>75</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8868,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>75</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8907,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>75</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8946,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>75</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8985,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>75</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9024,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>75</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9063,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>75</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9102,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>75</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9141,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>75</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9180,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>75</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9219,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>75</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9258,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>75</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9297,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>75</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9336,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>75</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9375,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>75</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9414,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>75</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9453,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>75</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9492,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>75</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9531,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>75</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9570,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>75</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9609,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>75</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9645,23 +8173,15 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>75</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
-        <v>1.059</v>
-      </c>
-      <c r="M236" t="n">
-        <v>1.002670226969292</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9686,7 +8206,7 @@
         <v>-9902721.241650272</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9719,7 +8239,7 @@
         <v>-10126699.52365027</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9752,7 +8272,7 @@
         <v>-9905774.236350272</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9785,7 +8305,7 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9818,7 +8338,7 @@
         <v>-9579957.464450272</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9851,7 +8371,7 @@
         <v>-9504984.720150271</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9884,7 +8404,7 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9917,7 +8437,7 @@
         <v>-9263320.593234431</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9950,7 +8470,7 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9983,7 +8503,7 @@
         <v>-8797492.280234432</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10016,7 +8536,7 @@
         <v>-7661137.437437512</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10049,7 +8569,7 @@
         <v>-8239962.830937512</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10082,7 +8602,7 @@
         <v>-7919523.135937512</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10115,7 +8635,7 @@
         <v>-8013245.952437512</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10148,7 +8668,7 @@
         <v>-8377245.348251232</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10181,7 +8701,7 @@
         <v>-8104695.712151232</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10214,7 +8734,7 @@
         <v>-7901439.660151232</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10247,7 +8767,7 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10280,7 +8800,7 @@
         <v>-8097262.283151232</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10313,7 +8833,7 @@
         <v>-7740695.237078742</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10346,7 +8866,7 @@
         <v>-7350044.580678742</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10379,7 +8899,7 @@
         <v>-7602400.460678742</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10709,7 +9229,7 @@
         <v>-6794734.718663434</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10742,7 +9262,7 @@
         <v>-6452732.129069054</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10775,7 +9295,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10808,7 +9328,7 @@
         <v>-6034269.097869053</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10841,7 +9361,7 @@
         <v>-6238034.226169053</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10874,7 +9394,7 @@
         <v>-6002806.218669053</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10907,7 +9427,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10940,7 +9460,7 @@
         <v>-6082083.559469054</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10973,7 +9493,7 @@
         <v>-6235035.300669054</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11006,7 +9526,7 @@
         <v>-5934005.262169054</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11039,7 +9559,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11072,7 +9592,7 @@
         <v>-6298552.150724874</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11105,7 +9625,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11138,7 +9658,7 @@
         <v>-6148631.074967704</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11171,7 +9691,7 @@
         <v>-6332742.164367704</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11204,7 +9724,7 @@
         <v>-6541592.667467704</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11237,7 +9757,7 @@
         <v>-6658698.213367704</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11270,7 +9790,7 @@
         <v>-6783288.542467704</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11303,7 +9823,7 @@
         <v>-6962713.069647164</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11336,7 +9856,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11369,7 +9889,7 @@
         <v>-6661090.912947164</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11435,7 +9955,7 @@
         <v>-6384168.812047164</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11468,7 +9988,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11501,7 +10021,7 @@
         <v>-6189845.320947164</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11534,7 +10054,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11567,7 +10087,7 @@
         <v>-6400035.450447164</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11600,7 +10120,7 @@
         <v>-6201876.489137404</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11633,7 +10153,7 @@
         <v>-6327607.425337404</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11666,7 +10186,7 @@
         <v>-6362526.901337404</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11699,7 +10219,7 @@
         <v>-6390228.132337403</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11732,7 +10252,7 @@
         <v>-6447698.136160653</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -21137,10 +19657,14 @@
         <v>-39112217.26542689</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J584" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
@@ -21170,11 +19694,19 @@
         <v>-39112345.81392689</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J585" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21203,11 +19735,19 @@
         <v>-39072500.61852689</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="J586" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21236,11 +19776,19 @@
         <v>-39075001.44732689</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J587" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21269,11 +19817,19 @@
         <v>-39075001.44732689</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J588" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21302,11 +19858,19 @@
         <v>-39079669.12132689</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J589" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21335,11 +19899,19 @@
         <v>-39087173.11382689</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J590" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21368,11 +19940,19 @@
         <v>-39085024.11382689</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>81</v>
+      </c>
+      <c r="J591" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21401,11 +19981,19 @@
         <v>-39085024.11382689</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="J592" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21434,11 +20022,19 @@
         <v>-39076391.79062689</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="J593" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21467,11 +20063,19 @@
         <v>-39122856.13182689</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="J594" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21500,11 +20104,19 @@
         <v>-39317472.1703269</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="J595" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21533,11 +20145,19 @@
         <v>-39340300.76392689</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="J596" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21566,11 +20186,19 @@
         <v>-39344146.9771269</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J597" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21599,11 +20227,19 @@
         <v>-39344468.12792689</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>81</v>
+      </c>
+      <c r="J598" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21632,11 +20268,19 @@
         <v>-39344422.11242689</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J599" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21665,11 +20309,19 @@
         <v>-39344422.11242689</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>81</v>
+      </c>
+      <c r="J600" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21698,11 +20350,19 @@
         <v>-39355403.40292689</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>81</v>
+      </c>
+      <c r="J601" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21731,11 +20391,19 @@
         <v>-39386219.24532689</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J602" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21764,11 +20432,19 @@
         <v>-39330224.25782689</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="J603" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21797,11 +20473,19 @@
         <v>-39389035.99882689</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="J604" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21836,9 +20520,13 @@
         <v>80.40000000000001</v>
       </c>
       <c r="J605" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K605" t="inlineStr"/>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21867,15 +20555,17 @@
         <v>-39366326.48272689</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J606" t="n">
-        <v>80.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L606" t="n">
@@ -21906,15 +20596,17 @@
         <v>-39355716.24972689</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J607" t="n">
-        <v>80.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L607" t="n">
@@ -21945,11 +20637,19 @@
         <v>-39343216.24972689</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="J608" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21978,11 +20678,19 @@
         <v>-39360045.28652689</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>81</v>
+      </c>
+      <c r="J609" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22011,11 +20719,19 @@
         <v>-39360045.28652689</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J610" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22044,11 +20760,19 @@
         <v>-39354976.90132689</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="J611" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22082,10 +20806,12 @@
       <c r="I612" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L612" t="n">
@@ -22121,7 +20847,9 @@
       <c r="I613" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22155,10 +20883,14 @@
         <v>-39317994.06932689</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>81</v>
+      </c>
+      <c r="J614" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22192,10 +20924,14 @@
         <v>-39329978.28242689</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="J615" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22229,10 +20965,14 @@
         <v>-39307642.56042688</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J616" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22266,10 +21006,14 @@
         <v>-39309385.26372688</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="J617" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22303,10 +21047,14 @@
         <v>-39378863.86272688</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J618" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22340,10 +21088,14 @@
         <v>-39364479.65332688</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J619" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22377,10 +21129,14 @@
         <v>-39417304.53922688</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J620" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22414,10 +21170,14 @@
         <v>-39416069.58822688</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J621" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22451,10 +21211,14 @@
         <v>-39416069.58822688</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="J622" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22488,10 +21252,14 @@
         <v>-39416069.58822688</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="J623" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22525,10 +21293,14 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="J624" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22562,10 +21334,14 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J625" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22599,10 +21375,14 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J626" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22636,10 +21416,14 @@
         <v>-39421941.14622688</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J627" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22673,10 +21457,14 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="J628" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22710,10 +21498,14 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J629" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22747,10 +21539,14 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J630" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22784,10 +21580,14 @@
         <v>-39416414.18592688</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J631" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22821,10 +21621,14 @@
         <v>-39375101.47492688</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J632" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22858,10 +21662,14 @@
         <v>-39375101.47492688</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J633" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22895,10 +21703,14 @@
         <v>-39375101.47492688</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J634" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22932,10 +21744,14 @@
         <v>-39372313.14492688</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J635" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22969,10 +21785,14 @@
         <v>-39402455.62262689</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>82</v>
+      </c>
+      <c r="J636" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23006,10 +21826,14 @@
         <v>-39337283.06012689</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J637" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23043,10 +21867,14 @@
         <v>-39319701.80202688</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>82</v>
+      </c>
+      <c r="J638" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23080,10 +21908,14 @@
         <v>-39280951.58402688</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J639" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23117,10 +21949,14 @@
         <v>-39274464.58402688</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J640" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23154,10 +21990,14 @@
         <v>-39184306.79472688</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J641" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23191,10 +22031,14 @@
         <v>-39184306.79472688</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J642" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23231,7 +22075,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23265,10 +22111,14 @@
         <v>-39184306.79472688</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J644" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23305,7 +22155,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23342,7 +22194,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23376,10 +22230,14 @@
         <v>-39304547.88532688</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J647" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23413,10 +22271,14 @@
         <v>-39306141.48532689</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J648" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23450,10 +22312,14 @@
         <v>-39305226.42772689</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J649" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23487,10 +22353,14 @@
         <v>-39298548.891495</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J650" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23524,10 +22394,14 @@
         <v>-39296254.102595</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J651" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23561,10 +22435,14 @@
         <v>-39316040.042595</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="J652" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23598,10 +22476,14 @@
         <v>-39131627.098995</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="J653" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23635,10 +22517,14 @@
         <v>-39233995.603795</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="J654" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23672,10 +22558,14 @@
         <v>-39325494.413895</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J655" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23709,10 +22599,14 @@
         <v>-39325494.413895</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J656" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23746,10 +22640,14 @@
         <v>-39218221.594795</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J657" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23783,10 +22681,14 @@
         <v>-39218221.594795</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>83</v>
+      </c>
+      <c r="J658" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23820,10 +22722,14 @@
         <v>-39218221.594795</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>83</v>
+      </c>
+      <c r="J659" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23857,10 +22763,14 @@
         <v>-39231826.99819499</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>83</v>
+      </c>
+      <c r="J660" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23894,10 +22804,14 @@
         <v>-39189772.07329499</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J661" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23931,10 +22845,14 @@
         <v>-39220689.81739499</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="J662" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23968,10 +22886,14 @@
         <v>-39259886.24279498</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J663" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24005,10 +22927,14 @@
         <v>-39333950.36239498</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J664" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24042,10 +22968,14 @@
         <v>-39344638.20659498</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J665" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24079,10 +23009,14 @@
         <v>-39389365.06849498</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J666" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24116,10 +23050,14 @@
         <v>-39275576.35599498</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>82</v>
+      </c>
+      <c r="J667" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24153,10 +23091,14 @@
         <v>-39351383.09169498</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="J668" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24190,10 +23132,14 @@
         <v>-39351383.09169498</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J669" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24227,10 +23173,14 @@
         <v>-39351383.09169498</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J670" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24264,10 +23214,14 @@
         <v>-39351105.50339498</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J671" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24301,10 +23255,14 @@
         <v>-39351105.50339498</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J672" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24338,10 +23296,14 @@
         <v>-39342337.07849498</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J673" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24375,10 +23337,14 @@
         <v>-39345475.53349498</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="J674" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24412,10 +23378,14 @@
         <v>-39275531.38729498</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J675" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24449,10 +23419,14 @@
         <v>-39260220.84929498</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="J676" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24486,10 +23460,14 @@
         <v>-39260220.84929498</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J677" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24523,10 +23501,14 @@
         <v>-39272389.68709498</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J678" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24560,10 +23542,14 @@
         <v>-39239647.53339498</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J679" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24597,10 +23583,14 @@
         <v>-39259667.67012209</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="J680" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24634,10 +23624,14 @@
         <v>-39259667.67012209</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J681" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24671,10 +23665,14 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J682" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24708,10 +23706,14 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J683" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24745,10 +23747,14 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J684" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24782,10 +23788,14 @@
         <v>-39229302.68282209</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J685" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24819,10 +23829,14 @@
         <v>-39204581.94752209</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J686" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24856,10 +23870,14 @@
         <v>-39202654.76332209</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J687" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24893,10 +23911,14 @@
         <v>-39135606.93418359</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="J688" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24930,10 +23952,14 @@
         <v>-39135606.93418359</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="J689" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24967,10 +23993,14 @@
         <v>-39062580.16448359</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="J690" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25004,10 +24034,14 @@
         <v>-39123131.60608359</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="J691" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25041,10 +24075,14 @@
         <v>-39123131.60608359</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="J692" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25078,10 +24116,14 @@
         <v>-39125815.8108836</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="J693" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25115,10 +24157,14 @@
         <v>-39075867.9142836</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J694" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25152,10 +24198,14 @@
         <v>-39088288.2268836</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J695" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25189,10 +24239,14 @@
         <v>-39077389.1749836</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="J696" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25226,10 +24280,14 @@
         <v>-39077389.1749836</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J697" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25263,10 +24321,14 @@
         <v>-38979914.2883836</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="J698" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25300,10 +24362,14 @@
         <v>-39030975.8548836</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="J699" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25337,10 +24403,14 @@
         <v>-39030975.8548836</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J700" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25374,10 +24444,14 @@
         <v>-39106826.56161071</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J701" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25411,10 +24485,14 @@
         <v>-39121409.5276107</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="J702" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25448,10 +24526,14 @@
         <v>-39081530.0041107</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>82</v>
+      </c>
+      <c r="J703" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25485,10 +24567,14 @@
         <v>-39088794.7241107</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J704" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25522,10 +24608,14 @@
         <v>-39088794.7241107</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J705" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25559,10 +24649,14 @@
         <v>-39088794.7241107</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J706" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25596,10 +24690,14 @@
         <v>-39091818.2119107</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J707" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25633,10 +24731,14 @@
         <v>-39104152.7582107</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>82</v>
+      </c>
+      <c r="J708" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25670,10 +24772,14 @@
         <v>-39104152.7582107</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J709" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25707,10 +24813,14 @@
         <v>-39101080.9372107</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J710" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25744,10 +24854,14 @@
         <v>-39101080.9372107</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="J711" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25781,10 +24895,14 @@
         <v>-39101019.3564107</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="J712" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25818,10 +24936,14 @@
         <v>-39101019.3564107</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J713" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25855,10 +24977,14 @@
         <v>-39081661.4017107</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J714" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25892,10 +25018,14 @@
         <v>-38973802.7362107</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J715" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25929,10 +25059,14 @@
         <v>-38983334.7587107</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="J716" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25966,10 +25100,14 @@
         <v>-39032360.1279107</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="J717" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26003,10 +25141,14 @@
         <v>-39032360.1279107</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>82</v>
+      </c>
+      <c r="J718" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26040,10 +25182,14 @@
         <v>-39025882.7125107</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>82</v>
+      </c>
+      <c r="J719" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26077,10 +25223,14 @@
         <v>-39028178.2125107</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J720" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26114,10 +25264,14 @@
         <v>-39057309.05601071</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>82</v>
+      </c>
+      <c r="J721" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26151,10 +25305,14 @@
         <v>-39057309.05601071</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J722" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26188,10 +25346,14 @@
         <v>-38953778.10732884</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J723" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26225,10 +25387,14 @@
         <v>-38945184.05542884</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J724" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26262,10 +25428,14 @@
         <v>-38930431.78872884</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J725" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26299,10 +25469,14 @@
         <v>-38942891.02482884</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="J726" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26336,10 +25510,14 @@
         <v>-38942891.02482884</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J727" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26373,10 +25551,14 @@
         <v>-38920353.98492885</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J728" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26410,10 +25592,14 @@
         <v>-38914041.35782885</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J729" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26447,10 +25633,14 @@
         <v>-39050040.87902885</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="J730" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26484,10 +25674,14 @@
         <v>-39042506.73832885</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J731" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26521,10 +25715,14 @@
         <v>-39046657.05692885</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J732" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26558,10 +25756,14 @@
         <v>-39046657.05692885</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J733" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26595,10 +25797,14 @@
         <v>-39046657.05692885</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J734" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26632,10 +25838,14 @@
         <v>-39016642.59222885</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J735" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26669,10 +25879,14 @@
         <v>-39016642.59222885</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J736" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26706,10 +25920,14 @@
         <v>-42116642.59222885</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J737" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26743,10 +25961,14 @@
         <v>-44930339.78232885</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J738" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26780,10 +26002,14 @@
         <v>-44956797.82780097</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>82</v>
+      </c>
+      <c r="J739" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26817,10 +26043,14 @@
         <v>-41803885.0999731</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J740" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26854,10 +26084,14 @@
         <v>-41818851.4843731</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>82</v>
+      </c>
+      <c r="J741" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26891,10 +26125,14 @@
         <v>-40217426.6956731</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J742" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26928,10 +26166,14 @@
         <v>-45180483.2259731</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J743" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26965,10 +26207,14 @@
         <v>-45150593.7956731</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>82</v>
+      </c>
+      <c r="J744" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27002,10 +26248,14 @@
         <v>-45150593.7956731</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J745" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27039,10 +26289,14 @@
         <v>-45150593.7956731</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J746" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27079,7 +26333,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27116,7 +26372,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27153,7 +26411,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27187,10 +26447,14 @@
         <v>-45166814.68390725</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="J750" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27224,10 +26488,14 @@
         <v>-45166814.68390725</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="J751" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27264,7 +26532,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27298,10 +26568,14 @@
         <v>-45164372.68150724</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J753" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27335,10 +26609,14 @@
         <v>-45164372.68150724</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="J754" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27375,7 +26653,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27412,7 +26692,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27449,7 +26731,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27486,7 +26770,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27523,7 +26809,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27557,10 +26845,14 @@
         <v>-45168094.62410724</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J760" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27597,7 +26889,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27631,10 +26925,14 @@
         <v>-45126715.75040724</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="J762" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27671,7 +26969,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27708,7 +27008,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27745,7 +27047,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27782,7 +27086,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27819,7 +27125,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27856,7 +27164,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27893,7 +27203,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27930,7 +27242,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27967,7 +27281,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28004,7 +27320,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28041,7 +27359,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28078,7 +27398,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28115,7 +27437,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28152,7 +27476,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28189,7 +27515,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28226,7 +27554,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28263,7 +27593,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28300,7 +27632,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28337,7 +27671,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28374,7 +27710,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28411,7 +27749,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28448,7 +27788,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28485,7 +27827,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28522,7 +27866,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28559,7 +27905,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28596,7 +27944,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28633,7 +27983,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28670,7 +28022,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28707,7 +28061,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28744,7 +28100,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28781,7 +28139,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28818,7 +28178,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28855,7 +28217,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28892,7 +28256,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28929,7 +28295,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28966,7 +28334,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29003,7 +28373,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29040,7 +28412,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29077,7 +28451,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29114,7 +28490,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29151,7 +28529,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29188,7 +28568,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29225,7 +28607,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29262,7 +28646,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29299,7 +28685,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29336,7 +28724,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29373,7 +28763,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29410,7 +28802,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29447,7 +28841,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29484,7 +28880,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29521,7 +28919,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29558,7 +28958,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29595,7 +28997,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29632,7 +29036,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29669,7 +29075,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29706,7 +29114,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29743,7 +29153,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29780,7 +29192,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29817,7 +29231,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29854,7 +29270,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29891,7 +29309,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29928,7 +29348,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29965,7 +29387,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30002,7 +29426,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30039,7 +29465,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30076,7 +29504,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30113,7 +29543,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30150,7 +29582,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30187,7 +29621,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30224,7 +29660,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30261,7 +29699,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30298,7 +29738,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30335,7 +29777,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30372,7 +29816,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30409,7 +29855,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30446,7 +29894,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30483,7 +29933,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30520,7 +29972,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30557,7 +30011,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30594,7 +30050,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30631,7 +30089,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30668,7 +30128,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30705,7 +30167,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30742,7 +30206,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30779,7 +30245,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30816,7 +30284,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30853,7 +30323,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30890,7 +30362,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30927,7 +30401,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30964,7 +30440,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31001,7 +30479,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31038,7 +30518,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31075,7 +30557,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
